--- a/_1/TC/Test Case Создания нового пользователя_.xlsx
+++ b/_1/TC/Test Case Создания нового пользователя_.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Reg_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Reg_2" sheetId="4" r:id="rId2"/>
+    <sheet name="Reg_N_0_Em_0_Em" sheetId="1" r:id="rId1"/>
+    <sheet name="Reg_" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -626,14 +626,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -644,8 +641,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1051,166 +1051,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1226,15 +1226,15 @@
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1" t="s">
@@ -1246,15 +1246,15 @@
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1" t="s">
@@ -1266,15 +1266,15 @@
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="1" t="s">
@@ -1286,15 +1286,15 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="1" t="s">
@@ -1306,15 +1306,15 @@
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1" t="s">
@@ -1326,15 +1326,15 @@
       <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1" t="s">
@@ -1346,15 +1346,15 @@
       <c r="A18" s="2">
         <v>7</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="1" t="s">
@@ -1366,15 +1366,15 @@
       <c r="A19" s="2">
         <v>8</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="1" t="s">
@@ -1386,15 +1386,15 @@
       <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="1" t="s">
@@ -1406,15 +1406,15 @@
       <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="1" t="s">
@@ -1426,15 +1426,15 @@
       <c r="A22" s="2">
         <v>11</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="1" t="s">
@@ -1446,15 +1446,15 @@
       <c r="A23" s="2">
         <v>12</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1" t="s">
@@ -1466,15 +1466,15 @@
       <c r="A24" s="2">
         <v>13</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1" t="s">
@@ -1486,15 +1486,15 @@
       <c r="A25" s="2">
         <v>14</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="1" t="s">
@@ -1506,15 +1506,15 @@
       <c r="A26" s="2">
         <v>15</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1" t="s">
@@ -1526,15 +1526,15 @@
       <c r="A27" s="2">
         <v>16</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1" t="s">
@@ -1546,15 +1546,15 @@
       <c r="A28" s="2">
         <v>17</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="1" t="s">
@@ -1566,15 +1566,15 @@
       <c r="A29" s="2">
         <v>18</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="1" t="s">
@@ -1586,15 +1586,15 @@
       <c r="A30" s="2">
         <v>19</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1" t="s">
@@ -1606,15 +1606,15 @@
       <c r="A31" s="2">
         <v>20</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1" t="s">
@@ -1623,58 +1623,59 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="B38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A9:J10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -1691,27 +1692,26 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A9:J10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I31">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Blocked">
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1763,156 +1763,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1927,15 +1927,15 @@
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1" t="s">
         <v>7</v>
@@ -1946,15 +1946,15 @@
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1" t="s">
         <v>7</v>
@@ -1965,15 +1965,15 @@
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1" t="s">
         <v>7</v>
@@ -1984,15 +1984,15 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="6"/>
       <c r="H15" s="1" t="s">
         <v>7</v>
@@ -2003,15 +2003,15 @@
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="6"/>
       <c r="H16" s="1" t="s">
         <v>7</v>
@@ -2022,15 +2022,15 @@
       <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="6"/>
       <c r="H17" s="1" t="s">
         <v>7</v>
@@ -2041,15 +2041,15 @@
       <c r="A18" s="2">
         <v>7</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="6"/>
       <c r="H18" s="1" t="s">
         <v>7</v>
@@ -2060,15 +2060,15 @@
       <c r="A19" s="2">
         <v>8</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="6"/>
       <c r="H19" s="1" t="s">
         <v>7</v>
@@ -2079,15 +2079,15 @@
       <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="3"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
@@ -2098,15 +2098,15 @@
       <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="3"/>
       <c r="H21" s="1" t="s">
         <v>7</v>
@@ -2117,15 +2117,15 @@
       <c r="A22" s="2">
         <v>11</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="3"/>
       <c r="H22" s="1" t="s">
         <v>7</v>
@@ -2136,15 +2136,15 @@
       <c r="A23" s="2">
         <v>12</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="3"/>
       <c r="H23" s="1" t="s">
         <v>7</v>
@@ -2155,15 +2155,15 @@
       <c r="A24" s="2">
         <v>13</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="3"/>
       <c r="H24" s="1" t="s">
         <v>7</v>
@@ -2174,15 +2174,15 @@
       <c r="A25" s="2">
         <v>14</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="3"/>
       <c r="H25" s="1" t="s">
         <v>7</v>
@@ -2193,15 +2193,15 @@
       <c r="A26" s="2">
         <v>15</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="3"/>
       <c r="H26" s="1" t="s">
         <v>7</v>
@@ -2212,15 +2212,15 @@
       <c r="A27" s="2">
         <v>16</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="3"/>
       <c r="H27" s="1" t="s">
         <v>7</v>
@@ -2231,15 +2231,15 @@
       <c r="A28" s="2">
         <v>17</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="3"/>
       <c r="H28" s="1" t="s">
         <v>7</v>
@@ -2250,15 +2250,15 @@
       <c r="A29" s="2">
         <v>18</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="3"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
@@ -2269,15 +2269,15 @@
       <c r="A30" s="2">
         <v>19</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="3"/>
       <c r="H30" s="1" t="s">
         <v>7</v>
@@ -2293,10 +2293,10 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="3"/>
       <c r="H31" s="1" t="s">
         <v>7</v>
@@ -2304,42 +2304,74 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
       <c r="B38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A6:D6"/>
@@ -2353,44 +2385,12 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H31">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Blocked">
